--- a/informe/tables/KNN.xlsx
+++ b/informe/tables/KNN.xlsx
@@ -467,19 +467,19 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>0.6759259259259259</v>
+        <v>0.6712962962962963</v>
       </c>
       <c r="C2" t="n">
-        <v>0.7200497431149356</v>
+        <v>0.7101067186058954</v>
       </c>
       <c r="D2" t="n">
-        <v>0.6645059673858085</v>
+        <v>0.6594703196983943</v>
       </c>
       <c r="E2" t="n">
-        <v>0.6759259259259259</v>
+        <v>0.6712962962962963</v>
       </c>
       <c r="F2" t="n">
-        <v>0.8876530349794239</v>
+        <v>0.8860069444444445</v>
       </c>
     </row>
     <row r="3">
@@ -489,19 +489,19 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0.6657407407407407</v>
+        <v>0.6574074074074073</v>
       </c>
       <c r="C3" t="n">
-        <v>0.7035084621991189</v>
+        <v>0.6985821376097102</v>
       </c>
       <c r="D3" t="n">
-        <v>0.6527394840811024</v>
+        <v>0.6440001673825063</v>
       </c>
       <c r="E3" t="n">
-        <v>0.6657407407407407</v>
+        <v>0.6574074074074074</v>
       </c>
       <c r="F3" t="n">
-        <v>0.881246784979424</v>
+        <v>0.8754603909465021</v>
       </c>
     </row>
     <row r="4">
@@ -511,19 +511,19 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>0.6796296296296296</v>
+        <v>0.6703703703703704</v>
       </c>
       <c r="C4" t="n">
-        <v>0.7248288934536117</v>
+        <v>0.71882371769603</v>
       </c>
       <c r="D4" t="n">
-        <v>0.6682668064931944</v>
+        <v>0.6502998311016247</v>
       </c>
       <c r="E4" t="n">
-        <v>0.6796296296296296</v>
+        <v>0.6703703703703704</v>
       </c>
       <c r="F4" t="n">
-        <v>0.8880291923868313</v>
+        <v>0.8882780349794239</v>
       </c>
     </row>
     <row r="5">
@@ -533,19 +533,19 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>0.6814814814814815</v>
+        <v>0.6601851851851852</v>
       </c>
       <c r="C5" t="n">
-        <v>0.7308036367818976</v>
+        <v>0.7073473139832874</v>
       </c>
       <c r="D5" t="n">
-        <v>0.6688515557198831</v>
+        <v>0.6459753183755358</v>
       </c>
       <c r="E5" t="n">
-        <v>0.6814814814814815</v>
+        <v>0.6601851851851852</v>
       </c>
       <c r="F5" t="n">
-        <v>0.8872363683127572</v>
+        <v>0.8767965534979423</v>
       </c>
     </row>
     <row r="6">
@@ -555,19 +555,19 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>0.6833333333333332</v>
+        <v>0.687962962962963</v>
       </c>
       <c r="C6" t="n">
-        <v>0.7215797171022519</v>
+        <v>0.7302112486698622</v>
       </c>
       <c r="D6" t="n">
-        <v>0.670703843581301</v>
+        <v>0.677893402191998</v>
       </c>
       <c r="E6" t="n">
-        <v>0.6833333333333333</v>
+        <v>0.687962962962963</v>
       </c>
       <c r="F6" t="n">
-        <v>0.8822884516460906</v>
+        <v>0.895068158436214</v>
       </c>
     </row>
     <row r="7">
@@ -577,19 +577,19 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>0.6772222222222222</v>
+        <v>0.6694444444444445</v>
       </c>
       <c r="C7" t="n">
-        <v>0.7201540905303632</v>
+        <v>0.713014227312957</v>
       </c>
       <c r="D7" t="n">
-        <v>0.6650135314522578</v>
+        <v>0.6555278077500117</v>
       </c>
       <c r="E7" t="n">
-        <v>0.6772222222222222</v>
+        <v>0.6694444444444445</v>
       </c>
       <c r="F7" t="n">
-        <v>0.8852907664609054</v>
+        <v>0.8843220164609054</v>
       </c>
     </row>
   </sheetData>

--- a/informe/tables/KNN.xlsx
+++ b/informe/tables/KNN.xlsx
@@ -467,19 +467,19 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>0.6712962962962963</v>
+        <v>0.6694444444444444</v>
       </c>
       <c r="C2" t="n">
-        <v>0.7101067186058954</v>
+        <v>0.7052653844774932</v>
       </c>
       <c r="D2" t="n">
-        <v>0.6594703196983943</v>
+        <v>0.6562657722594937</v>
       </c>
       <c r="E2" t="n">
-        <v>0.6712962962962963</v>
+        <v>0.6694444444444444</v>
       </c>
       <c r="F2" t="n">
-        <v>0.8860069444444445</v>
+        <v>0.8898186728395062</v>
       </c>
     </row>
     <row r="3">
@@ -489,19 +489,19 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0.6574074074074073</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="C3" t="n">
-        <v>0.6985821376097102</v>
+        <v>0.701992267337471</v>
       </c>
       <c r="D3" t="n">
-        <v>0.6440001673825063</v>
+        <v>0.6514890858245549</v>
       </c>
       <c r="E3" t="n">
-        <v>0.6574074074074074</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="F3" t="n">
-        <v>0.8754603909465021</v>
+        <v>0.873454861111111</v>
       </c>
     </row>
     <row r="4">
@@ -511,19 +511,19 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>0.6703703703703704</v>
+        <v>0.6787037037037037</v>
       </c>
       <c r="C4" t="n">
-        <v>0.71882371769603</v>
+        <v>0.7154152500932623</v>
       </c>
       <c r="D4" t="n">
-        <v>0.6502998311016247</v>
+        <v>0.6675676797451756</v>
       </c>
       <c r="E4" t="n">
-        <v>0.6703703703703704</v>
+        <v>0.6787037037037037</v>
       </c>
       <c r="F4" t="n">
-        <v>0.8882780349794239</v>
+        <v>0.8847183641975308</v>
       </c>
     </row>
     <row r="5">
@@ -533,19 +533,19 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>0.6601851851851852</v>
+        <v>0.6777777777777777</v>
       </c>
       <c r="C5" t="n">
-        <v>0.7073473139832874</v>
+        <v>0.7235536189784556</v>
       </c>
       <c r="D5" t="n">
-        <v>0.6459753183755358</v>
+        <v>0.6627818731851244</v>
       </c>
       <c r="E5" t="n">
-        <v>0.6601851851851852</v>
+        <v>0.6777777777777778</v>
       </c>
       <c r="F5" t="n">
-        <v>0.8767965534979423</v>
+        <v>0.8889981995884774</v>
       </c>
     </row>
     <row r="6">
@@ -555,19 +555,19 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>0.687962962962963</v>
+        <v>0.662962962962963</v>
       </c>
       <c r="C6" t="n">
-        <v>0.7302112486698622</v>
+        <v>0.717471521175623</v>
       </c>
       <c r="D6" t="n">
-        <v>0.677893402191998</v>
+        <v>0.6524738975923</v>
       </c>
       <c r="E6" t="n">
-        <v>0.687962962962963</v>
+        <v>0.662962962962963</v>
       </c>
       <c r="F6" t="n">
-        <v>0.895068158436214</v>
+        <v>0.8796135545267489</v>
       </c>
     </row>
     <row r="7">
@@ -577,19 +577,19 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>0.6694444444444445</v>
+        <v>0.671111111111111</v>
       </c>
       <c r="C7" t="n">
-        <v>0.713014227312957</v>
+        <v>0.712739608412461</v>
       </c>
       <c r="D7" t="n">
-        <v>0.6555278077500117</v>
+        <v>0.6581156617213297</v>
       </c>
       <c r="E7" t="n">
-        <v>0.6694444444444445</v>
+        <v>0.671111111111111</v>
       </c>
       <c r="F7" t="n">
-        <v>0.8843220164609054</v>
+        <v>0.8833207304526749</v>
       </c>
     </row>
   </sheetData>
